--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1873300.550445514</v>
+        <v>1977480.184896586</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9968851.464351803</v>
+        <v>9968851.464351801</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>56.95878470060131</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>150.9601371840607</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>118.5508175628486</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>244.1831094673603</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>4.792004777350766</v>
       </c>
       <c r="C5" t="n">
-        <v>324.3727542084981</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>96.02073708878972</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,7 +1113,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>178.7060423383819</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>324.5143282092421</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,10 +1341,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>14.3965116721473</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>69.11773964381705</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>35.63623515385488</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>35.8864194913564</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.03048557919066</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1898,13 +1900,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>217.0250037474722</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>88.42183553064734</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>217.0099009525709</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465674</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>202.2714981515506</v>
+        <v>135.5334195528338</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2849,10 +2851,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2959,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,13 +3009,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238196</v>
+        <v>40.1538165833283</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>139.9371893537616</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>94.56071137692177</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>53.08838020945834</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>47.49734780285714</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3718,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>32.27552175740353</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>95.81917536083702</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4028,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>35.88641949135547</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>119.6383426943723</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>950.1045973369978</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>950.1045973369978</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>539.1186925473903</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>124.0462423923868</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3062.830166081658</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3062.830166081658</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2344.644740724084</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="C4" t="n">
-        <v>2175.708557796178</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D4" t="n">
-        <v>2025.591918383842</v>
+        <v>2170.872131622241</v>
       </c>
       <c r="E4" t="n">
-        <v>1877.678824801449</v>
+        <v>2022.959038039848</v>
       </c>
       <c r="F4" t="n">
-        <v>1730.788877303538</v>
+        <v>1876.069090541938</v>
       </c>
       <c r="G4" t="n">
-        <v>1611.040576735004</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U4" t="n">
-        <v>3036.502954734815</v>
+        <v>2575.673259240464</v>
       </c>
       <c r="V4" t="n">
-        <v>3036.502954734815</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="W4" t="n">
-        <v>2747.085784697854</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="X4" t="n">
-        <v>2747.085784697854</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="Y4" t="n">
-        <v>2526.293205554324</v>
+        <v>2320.988771034577</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.004869410821</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4565,10 +4567,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4604,13 +4606,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474942</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>627.5394227759724</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C7" t="n">
-        <v>530.5487792519424</v>
+        <v>181.169050396912</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396067</v>
+        <v>181.169050396912</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>181.169050396912</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>181.169050396912</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1326.59460854119</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.177438504229</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>809.1878876062121</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>809.1878876062121</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219474</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C8" t="n">
-        <v>1859.132475219474</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1500.866776612723</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>1115.078524014479</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>704.0926192248717</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>289.0201690698681</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520487</v>
+        <v>2350.482267460511</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259407</v>
+        <v>1977.016509199431</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283596</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.3899067494191</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C10" t="n">
-        <v>479.4537238215122</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1822.922159864054</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1822.922159864054</v>
+        <v>1767.648192215903</v>
       </c>
       <c r="U10" t="n">
-        <v>1822.922159864054</v>
+        <v>1767.648192215903</v>
       </c>
       <c r="V10" t="n">
-        <v>1568.237671658167</v>
+        <v>1512.963704010016</v>
       </c>
       <c r="W10" t="n">
-        <v>1278.820501621206</v>
+        <v>1223.546533973055</v>
       </c>
       <c r="X10" t="n">
-        <v>1050.830950723189</v>
+        <v>995.5569830750376</v>
       </c>
       <c r="Y10" t="n">
-        <v>830.0383715796588</v>
+        <v>774.7644039315074</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5057,34 +5059,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468476</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962607</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589159</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2410.966886455156</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.365421478097</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.290194822295</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.605706616408</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.188536579448</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.19898568143</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612593</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>1052.829365488568</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>883.8931825606608</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>733.776543148325</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>585.8634495659319</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>438.9735020680215</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>271.7774027829014</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>130.0655716250996</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2345.543151974895</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2125.941686997836</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1836.866460342034</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.866460342034</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407056</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>1234.477830318807</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5601,19 +5603,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
         <v>484.8112968429803</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5764,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,22 +5779,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5983,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>808.8888553856862</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>639.9526724577793</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1469.183933700594</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1179.766763663633</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>951.777212765616</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.5373202159259</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>3807.864035926977</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>4435.461999481584</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>530.3315352860755</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C28" t="n">
-        <v>530.3315352860755</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860755</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>711.9800001163152</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="29">
@@ -6443,7 +6445,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,10 +6457,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6482,22 +6484,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396425</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396425</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6783,19 +6785,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3122.22696873374</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C34" t="n">
-        <v>3122.22696873374</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>2972.110329321405</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>2824.197235739011</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="U34" t="n">
-        <v>4115.110757018135</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V34" t="n">
-        <v>3860.426268812248</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W34" t="n">
-        <v>3571.009098775287</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X34" t="n">
-        <v>3343.01954787727</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y34" t="n">
-        <v>3122.22696873374</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>129.5921236250085</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1889.844516861991</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2313.467666357059</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>996.5276398439756</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>827.5914569160688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7366,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1178.176104674215</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2100.27549966854</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1052.829365488567</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C46" t="n">
-        <v>883.8931825606599</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D46" t="n">
-        <v>733.7765431483241</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E46" t="n">
-        <v>585.863449565931</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>438.9735020680206</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>271.7774027829005</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>130.0655716250986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1972.677130397314</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1683.259960360354</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.270409462336</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1234.477830318806</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
   </sheetData>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>145.3900508477897</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>45.37941682720912</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>146.9958004224539</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>35.1126395763558</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>60.19363748756501</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>35.12774237125711</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.31315520054417</v>
+        <v>83.05123379926101</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>211.9838267404997</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>85.77246603527556</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>50.86033664600947</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>164.3170701178299</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>104.8770068749577</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>101.1181252153552</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>114.1584408891656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>45.37941682721006</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>106.0713126946649</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.9210447283</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.9210447283</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858482.9210447284</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.539624622135307e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815717</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,22 +26435,22 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.9762168059</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680594</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680594</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-952913.4583721443</v>
       </c>
       <c r="C6" t="n">
-        <v>375831.2873554482</v>
+        <v>375831.2873554478</v>
       </c>
       <c r="D6" t="n">
-        <v>375831.2873554482</v>
+        <v>375831.2873554479</v>
       </c>
       <c r="E6" t="n">
-        <v>126690.6519349358</v>
+        <v>126690.6519349359</v>
       </c>
       <c r="F6" t="n">
+        <v>452103.1137422914</v>
+      </c>
+      <c r="G6" t="n">
         <v>452103.1137422918</v>
-      </c>
-      <c r="G6" t="n">
-        <v>452103.1137422919</v>
       </c>
       <c r="H6" t="n">
         <v>452103.1137422913</v>
       </c>
       <c r="I6" t="n">
-        <v>452103.1137422913</v>
+        <v>452103.1137422918</v>
       </c>
       <c r="J6" t="n">
-        <v>234571.9113450137</v>
+        <v>234571.9113450141</v>
       </c>
       <c r="K6" t="n">
+        <v>452103.1137422916</v>
+      </c>
+      <c r="L6" t="n">
+        <v>452103.1137422917</v>
+      </c>
+      <c r="M6" t="n">
+        <v>367048.0858067795</v>
+      </c>
+      <c r="N6" t="n">
+        <v>452103.1137422914</v>
+      </c>
+      <c r="O6" t="n">
+        <v>452103.1137422916</v>
+      </c>
+      <c r="P6" t="n">
         <v>452103.1137422915</v>
-      </c>
-      <c r="L6" t="n">
-        <v>452103.1137422916</v>
-      </c>
-      <c r="M6" t="n">
-        <v>367048.0858067793</v>
-      </c>
-      <c r="N6" t="n">
-        <v>452103.1137422916</v>
-      </c>
-      <c r="O6" t="n">
-        <v>452103.1137422915</v>
-      </c>
-      <c r="P6" t="n">
-        <v>452103.1137422916</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26960,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>237.6489796867191</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>52.95783295555947</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>47.47499069617959</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>42.0287287382526</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>377.9418368861298</v>
       </c>
       <c r="C5" t="n">
-        <v>40.90013756250943</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>71.22608400983812</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>148.867864043785</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>115.9017220489386</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>24.72664050817087</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>175.3725136592946</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>150.4312096323521</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -29572,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>8.707735062108396e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29755,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29946,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31619,7 +31621,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200287</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31923,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,31 +32080,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>558.317784834278</v>
+        <v>639.8517673857158</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32321,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>366.8427442359106</v>
+        <v>742.9354859824765</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32710,7 +32712,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32789,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786837</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,28 +33265,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>428.7353800421384</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,13 +33988,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>344.9857809048118</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34144,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,10 +34216,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>404.0195168876591</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34228,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,10 +34456,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>375.1407109807906</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35267,7 +35269,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366955</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9760727509446</v>
+        <v>508.5100553023825</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35969,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>235.5010321525773</v>
+        <v>611.5937738991432</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36358,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342392</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>297.3936679588052</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37242,7 +37244,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066206</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>205.0040068187903</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37792,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37876,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,10 +38104,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>243.7989988974573</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1977480.184896586</v>
+        <v>1973467.574882594</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>150.9601371840607</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>227.7172236952942</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>18.12224013931773</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>244.1831094673603</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.792004777350766</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>166.9920602376584</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>17.1579442152432</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1110,19 +1110,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>19.58945082857592</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
-        <v>324.5143282092421</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>69.11773964381705</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1423,7 +1423,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>63.16281301713072</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>35.8864194913564</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>212.5602966632236</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>33.66638448560004</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>217.0250037474722</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187878</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>217.0099009525709</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.5334195528338</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>40.1538165833283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576179</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>34.22340015155946</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>53.08838020945834</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880071</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>103.1686991936193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>18.16423677622421</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>95.81917536083702</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>119.6383426943723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4327,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4360,19 +4360,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3062.830166081658</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3062.830166081658</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2731.767278738087</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2731.767278738087</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2320.988771034577</v>
+        <v>182.143086683856</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034577</v>
+        <v>182.143086683856</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622241</v>
+        <v>182.143086683856</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039848</v>
+        <v>182.143086683856</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541938</v>
+        <v>182.143086683856</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916657</v>
+        <v>182.143086683856</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366697</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.32286476305</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>2575.673259240464</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>2320.988771034577</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>2320.988771034577</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X4" t="n">
-        <v>2320.988771034577</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y4" t="n">
-        <v>2320.988771034577</v>
+        <v>363.7915515140957</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1303.529887077737</v>
+        <v>2144.883770458461</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.483610522583</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2531.483610522583</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2531.483610522583</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.169050396912</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>181.169050396912</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>181.169050396912</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>181.169050396912</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>181.169050396912</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8175152271517</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2350.482267460511</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.016509199431</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>774.7644039315074</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1767.648192215903</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1767.648192215903</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1512.963704010016</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1223.546533973055</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>995.5569830750376</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>774.7644039315074</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5044,7 +5044,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5071,10 +5071,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408905</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782999</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038386</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1052.829365488568</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>883.8931825606608</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>733.776543148325</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>585.8634495659319</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>438.9735020680215</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>271.7774027829014</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>130.0655716250996</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603202</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1972.677130397315</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1683.259960360355</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1455.270409462337</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>1234.477830318807</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5533,22 +5533,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,64 +5649,64 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2345.91093085731</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V19" t="n">
         <v>1871.624977674364</v>
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,10 +5968,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1469.183933700594</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1179.766763663633</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>951.777212765616</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>951.777212765616</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6211,43 +6211,43 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>4435.461999481584</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.6442739835331</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.292738813773</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="29">
@@ -6451,55 +6451,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6691,61 +6691,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356194</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>295.5818533952732</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>128.3857541101532</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>128.3857541101532</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580256</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2393.338457106056</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2104.263230450254</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1849.578742244367</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1560.161572207406</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1332.172021309389</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1111.379442165859</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>636.6680198981028</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C43" t="n">
-        <v>467.7318369701959</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D43" t="n">
-        <v>317.6151975578602</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1811.200273012738</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V43" t="n">
-        <v>1556.515784806851</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W43" t="n">
-        <v>1267.09861476989</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1039.109063871873</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y43" t="n">
-        <v>818.3164847283425</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1090.48308855706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>116.6691671648066</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>45.37941682720912</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>73.62417772602058</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>147.3599015160445</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>35.1126395763558</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>35.12774237125711</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.9259388694754307</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>83.05123379926101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>211.9838267404997</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>47.04243616700606</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>164.3170701178299</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>45.44677382459308</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>127.256811246707</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>106.0713126946649</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="12">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830045</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>6.34467155123275e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.755561243044213e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815717</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815698</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26435,19 +26435,19 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-952913.4583721443</v>
+        <v>-952913.4583721445</v>
       </c>
       <c r="C6" t="n">
-        <v>375831.2873554478</v>
+        <v>375831.2873554476</v>
       </c>
       <c r="D6" t="n">
-        <v>375831.2873554479</v>
+        <v>375831.2873554486</v>
       </c>
       <c r="E6" t="n">
-        <v>126690.6519349359</v>
+        <v>126343.2726805793</v>
       </c>
       <c r="F6" t="n">
-        <v>452103.1137422914</v>
+        <v>451755.7344879346</v>
       </c>
       <c r="G6" t="n">
-        <v>452103.1137422918</v>
+        <v>451755.7344879344</v>
       </c>
       <c r="H6" t="n">
-        <v>452103.1137422913</v>
+        <v>451755.7344879348</v>
       </c>
       <c r="I6" t="n">
-        <v>452103.1137422918</v>
+        <v>451755.7344879347</v>
       </c>
       <c r="J6" t="n">
-        <v>234571.9113450141</v>
+        <v>234224.5320906573</v>
       </c>
       <c r="K6" t="n">
-        <v>452103.1137422916</v>
+        <v>451755.7344879342</v>
       </c>
       <c r="L6" t="n">
-        <v>452103.1137422917</v>
+        <v>451755.7344879347</v>
       </c>
       <c r="M6" t="n">
-        <v>367048.0858067795</v>
+        <v>366700.7065524227</v>
       </c>
       <c r="N6" t="n">
-        <v>452103.1137422914</v>
+        <v>451755.7344879346</v>
       </c>
       <c r="O6" t="n">
-        <v>452103.1137422916</v>
+        <v>451755.7344879346</v>
       </c>
       <c r="P6" t="n">
-        <v>452103.1137422915</v>
+        <v>451755.7344879346</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022932</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>52.95783295555947</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>158.5207149607594</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>126.6327747750031</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>42.0287287382526</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>377.9418368861298</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>198.2808315333491</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>148.867864043785</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>266.6223873770369</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
-        <v>24.72664050817087</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>150.4312096323521</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-8.360776804491007e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28271,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>8.707735062108396e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29757,7 +29757,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-2.053100445934254e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I5" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31837,31 +31837,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,31 +32074,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>639.8517673857158</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159423</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786837</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295757</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>508.5100553023825</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193515</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>611.5937738991432</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342392</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066206</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1973467.574882594</v>
+        <v>1975228.10518538</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9968851.464351801</v>
+        <v>9968851.464351803</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>227.7172236952942</v>
+        <v>227.7172236952937</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>18.12224013931773</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>203.4068132192027</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>166.9920602376584</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>191.6758472350563</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>13.02719212039586</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>19.58945082857592</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>184.4241132557161</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>218.8748435506846</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991755</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.16281301713072</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>173.4756821528522</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1818,10 +1818,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>212.5602966632236</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>80.10107535865899</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>33.66638448560004</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187878</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>12.74007641194029</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>95.05806357631725</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>147.6895341487369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.7084378797731</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576179</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>34.22340015155946</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>251.0718348128881</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>114.2821160880071</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>18.16423677622421</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.143086683856</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C4" t="n">
-        <v>182.143086683856</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D4" t="n">
-        <v>182.143086683856</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E4" t="n">
-        <v>182.143086683856</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F4" t="n">
-        <v>182.143086683856</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G4" t="n">
-        <v>182.143086683856</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556431</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X4" t="n">
-        <v>584.5841306576258</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>363.7915515140957</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458461</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1396.478739875897</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1010.690487277652</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>599.7045824880447</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792697</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522583</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522583</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.483610522583</v>
+        <v>2141.344278546769</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158138</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791191</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484846</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.054724415577</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.054724415577</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1343.379050624728</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>985.1133520179771</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>599.3250994197329</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>592.3795986705294</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.7012443408905</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782999</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038386</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510513</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854711</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648824</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611863</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138456</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703155</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,34 +5530,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2345.91093085731</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2126.309465880251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2126.309465880251</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,43 +5731,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,10 +5968,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
         <v>402.7245934908938</v>
@@ -6141,58 +6141,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958739</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>633.992644467967</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510509</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304622</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369644</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261136</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,43 +6691,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6764,25 +6764,25 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.547769317909</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C34" t="n">
-        <v>593.6115863900021</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D34" t="n">
-        <v>443.4949469776664</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E34" t="n">
-        <v>295.5818533952732</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>295.5818533952732</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>128.3857541101532</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>128.3857541101532</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0655846733346</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>633.992644467967</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>483.8760050556313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>335.9629114732381</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369644</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261136</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-5.401264628080076e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>116.6691671648066</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>113.0473161837388</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>73.62417772602058</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>147.3599015160445</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>205.8445769401545</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>84.77391660562004</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9259388694754307</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>47.04243616700606</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>35.11263957635606</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>127.256811246707</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>873072.8497277193</v>
+        <v>873072.8497277194</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>873072.8497277193</v>
+        <v>873072.8497277194</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>858482.9210447283</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.9210447283</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>858482.921044728</v>
+        <v>858482.9210447281</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.921044728</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>858482.9210447281</v>
+        <v>858482.9210447283</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
@@ -26352,10 +26352,10 @@
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>6.34467155123275e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.755561243044213e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815698</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815704</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26435,10 +26435,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26447,7 +26447,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-952913.4583721445</v>
+        <v>-952913.4583721443</v>
       </c>
       <c r="C6" t="n">
-        <v>375831.2873554476</v>
+        <v>375831.2873554479</v>
       </c>
       <c r="D6" t="n">
-        <v>375831.2873554486</v>
+        <v>375831.2873554481</v>
       </c>
       <c r="E6" t="n">
-        <v>126343.2726805793</v>
+        <v>126655.9140095012</v>
       </c>
       <c r="F6" t="n">
-        <v>451755.7344879346</v>
+        <v>452068.3758168557</v>
       </c>
       <c r="G6" t="n">
-        <v>451755.7344879344</v>
+        <v>452068.3758168557</v>
       </c>
       <c r="H6" t="n">
-        <v>451755.7344879348</v>
+        <v>452068.3758168557</v>
       </c>
       <c r="I6" t="n">
-        <v>451755.7344879347</v>
+        <v>452068.375816856</v>
       </c>
       <c r="J6" t="n">
-        <v>234224.5320906573</v>
+        <v>234537.1734195784</v>
       </c>
       <c r="K6" t="n">
-        <v>451755.7344879342</v>
+        <v>452068.3758168558</v>
       </c>
       <c r="L6" t="n">
-        <v>451755.7344879347</v>
+        <v>452068.375816856</v>
       </c>
       <c r="M6" t="n">
-        <v>366700.7065524227</v>
+        <v>367013.3478813439</v>
       </c>
       <c r="N6" t="n">
-        <v>451755.7344879346</v>
+        <v>452068.3758168558</v>
       </c>
       <c r="O6" t="n">
-        <v>451755.7344879346</v>
+        <v>452068.3758168557</v>
       </c>
       <c r="P6" t="n">
-        <v>451755.7344879346</v>
+        <v>452068.3758168559</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.5207149607594</v>
+        <v>158.5207149607598</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>126.6327747750031</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696654</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>198.2808315333491</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>219.2458784183972</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>176.741833211046</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>266.6223873770369</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>226.4976123977374</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>108.8774149194503</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911067</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.360776804491007e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28271,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159423</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236497</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882195</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295757</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193515</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
